--- a/course_listing.xlsx
+++ b/course_listing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsanchezarias/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flpoly-my.sharepoint.com/personal/rsanchezarias_floridapoly_edu/Documents/flpoly_teaching/flpoly_courses/CAP_5321_Data_Wrangling_and_EDA/week_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D62C51-6A08-4844-988C-1737F7DA240B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F72B54-1076-8540-B178-5EE63C45AC93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full List" sheetId="1" state="hidden" r:id="rId1"/>
@@ -15182,7 +15182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
@@ -16876,7 +16876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1048576"/>
@@ -17929,21 +17929,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007F362E85C9F1C47AAC44F8082119467" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48cc9b3418bc48c85f4a3bec4499b323">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8" xmlns:ns4="af9604b6-2305-48f1-a0dd-079d18b39ece" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfa8b6998f849e67f26632766b504fa" ns3:_="" ns4:_="">
     <xsd:import namespace="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8"/>
@@ -18166,24 +18151,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3485A0E8-9D47-4B64-AFAD-D2E13781F16F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEAEB94-CDC6-4915-B936-3BB8420F4EBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB0E1E8-CB06-4516-B753-CC4BABAA1CCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18200,4 +18183,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEAEB94-CDC6-4915-B936-3BB8420F4EBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="af9604b6-2305-48f1-a0dd-079d18b39ece"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3485A0E8-9D47-4B64-AFAD-D2E13781F16F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/course_listing.xlsx
+++ b/course_listing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flpoly-my.sharepoint.com/personal/rsanchezarias_floridapoly_edu/Documents/flpoly_teaching/flpoly_courses/CAP_5321_Data_Wrangling_and_EDA/week_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsanchezarias/OneDrive - Florida Polytechnic University/flpoly_teaching/flpoly_courses/CAP_5321_Data_Wrangling_and_EDA/week_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F72B54-1076-8540-B178-5EE63C45AC93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F1F72B54-1076-8540-B178-5EE63C45AC93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AB4B0C11-4662-F64B-8594-297D376DC915}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full List" sheetId="1" state="hidden" r:id="rId1"/>
@@ -15182,7 +15182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
@@ -16876,7 +16876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1048576"/>
@@ -17929,6 +17929,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007F362E85C9F1C47AAC44F8082119467" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48cc9b3418bc48c85f4a3bec4499b323">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8" xmlns:ns4="af9604b6-2305-48f1-a0dd-079d18b39ece" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfa8b6998f849e67f26632766b504fa" ns3:_="" ns4:_="">
     <xsd:import namespace="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8"/>
@@ -18151,22 +18166,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3485A0E8-9D47-4B64-AFAD-D2E13781F16F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEAEB94-CDC6-4915-B936-3BB8420F4EBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="af9604b6-2305-48f1-a0dd-079d18b39ece"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB0E1E8-CB06-4516-B753-CC4BABAA1CCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18183,29 +18208,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEAEB94-CDC6-4915-B936-3BB8420F4EBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="af9604b6-2305-48f1-a0dd-079d18b39ece"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3485A0E8-9D47-4B64-AFAD-D2E13781F16F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/course_listing.xlsx
+++ b/course_listing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsanchezarias/OneDrive - Florida Polytechnic University/flpoly_teaching/flpoly_courses/CAP_5321_Data_Wrangling_and_EDA/week_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsanchezarias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F1F72B54-1076-8540-B178-5EE63C45AC93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AB4B0C11-4662-F64B-8594-297D376DC915}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Full List" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4517,7 +4516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4933,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4944,16 +4943,16 @@
       <selection pane="bottomLeft" activeCell="A494" sqref="A494:IV514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>212</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>212</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>212</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>212</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>212</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>212</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>212</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>212</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>212</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>212</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>212</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>212</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>212</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>212</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>212</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>212</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>212</v>
       </c>
@@ -5533,7 +5532,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>212</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>212</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>212</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>212</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>212</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>212</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>212</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>212</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>212</v>
       </c>
@@ -5853,7 +5852,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>212</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>212</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>212</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>212</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>212</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>212</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>212</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>212</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>212</v>
       </c>
@@ -6213,7 +6212,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>212</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>212</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>212</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>212</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>212</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>212</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>212</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>212</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>212</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>212</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>212</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>212</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>212</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>212</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>212</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>31</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>31</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>31</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>31</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>31</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>31</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>31</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>31</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>31</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>31</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>31</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>31</v>
       </c>
@@ -7093,7 +7092,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>31</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>31</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>31</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>31</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>31</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -7353,7 +7352,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>31</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>31</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -7633,7 +7632,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>31</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>31</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>31</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -7833,7 +7832,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -7933,7 +7932,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>31</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -8073,7 +8072,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>31</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>31</v>
       </c>
@@ -8153,7 +8152,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -8173,7 +8172,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -8193,7 +8192,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -8253,7 +8252,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -8393,7 +8392,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -8433,7 +8432,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -8453,7 +8452,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -8473,7 +8472,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -8493,7 +8492,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -8613,7 +8612,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>115</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>115</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>115</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>115</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>115</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>115</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>115</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>115</v>
       </c>
@@ -8773,7 +8772,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>115</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>115</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>115</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>115</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>115</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>115</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>115</v>
       </c>
@@ -8913,7 +8912,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>115</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>115</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>115</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>115</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>115</v>
       </c>
@@ -9013,7 +9012,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>115</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>115</v>
       </c>
@@ -9073,7 +9072,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>115</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>115</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>115</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>115</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>115</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>115</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>115</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>115</v>
       </c>
@@ -9233,7 +9232,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>115</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>115</v>
       </c>
@@ -9273,7 +9272,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>115</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>115</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>115</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>115</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>115</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>25</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>25</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>25</v>
       </c>
@@ -9433,7 +9432,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -9453,7 +9452,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -9473,7 +9472,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -9493,7 +9492,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>25</v>
       </c>
@@ -9513,7 +9512,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -9593,7 +9592,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -9693,7 +9692,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>25</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -9793,7 +9792,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>25</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>25</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>25</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>25</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>25</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>25</v>
       </c>
@@ -9933,7 +9932,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>25</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>25</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>25</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>25</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>25</v>
       </c>
@@ -10033,7 +10032,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>25</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>25</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>25</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>25</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>25</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>25</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>25</v>
       </c>
@@ -10173,7 +10172,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>25</v>
       </c>
@@ -10193,7 +10192,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -10213,7 +10212,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>25</v>
       </c>
@@ -10253,7 +10252,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>362</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>362</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>362</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>362</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>362</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>362</v>
       </c>
@@ -10373,7 +10372,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>362</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>362</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>362</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>362</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>362</v>
       </c>
@@ -10473,7 +10472,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>362</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>362</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>362</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>362</v>
       </c>
@@ -10553,7 +10552,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>362</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>362</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>362</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>362</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>362</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>362</v>
       </c>
@@ -10673,7 +10672,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>362</v>
       </c>
@@ -10693,7 +10692,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>362</v>
       </c>
@@ -10713,7 +10712,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>362</v>
       </c>
@@ -10733,7 +10732,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>362</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>362</v>
       </c>
@@ -10773,7 +10772,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>362</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>362</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>362</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>362</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>362</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>362</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>362</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>362</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>362</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>362</v>
       </c>
@@ -10973,7 +10972,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>362</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>362</v>
       </c>
@@ -11013,7 +11012,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>362</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>362</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>362</v>
       </c>
@@ -11073,7 +11072,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>362</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>362</v>
       </c>
@@ -11113,7 +11112,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>362</v>
       </c>
@@ -11133,7 +11132,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>362</v>
       </c>
@@ -11153,7 +11152,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>362</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>362</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>362</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>362</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>362</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>362</v>
       </c>
@@ -11273,7 +11272,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>362</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>362</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>362</v>
       </c>
@@ -11333,7 +11332,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>362</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>362</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>362</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>362</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>362</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>362</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>242</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>242</v>
       </c>
@@ -11493,7 +11492,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>978</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>978</v>
       </c>
@@ -11533,7 +11532,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>978</v>
       </c>
@@ -11553,7 +11552,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>978</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>978</v>
       </c>
@@ -11593,7 +11592,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>978</v>
       </c>
@@ -11613,7 +11612,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>978</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>978</v>
       </c>
@@ -11653,7 +11652,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>978</v>
       </c>
@@ -11673,7 +11672,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>978</v>
       </c>
@@ -11693,7 +11692,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>978</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>978</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>978</v>
       </c>
@@ -11753,7 +11752,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>978</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>978</v>
       </c>
@@ -11793,7 +11792,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>978</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>978</v>
       </c>
@@ -11833,7 +11832,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>978</v>
       </c>
@@ -11853,7 +11852,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>978</v>
       </c>
@@ -11873,7 +11872,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>978</v>
       </c>
@@ -11893,7 +11892,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>978</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>978</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>978</v>
       </c>
@@ -11953,7 +11952,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>978</v>
       </c>
@@ -11973,7 +11972,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>978</v>
       </c>
@@ -11993,7 +11992,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>978</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>978</v>
       </c>
@@ -12033,7 +12032,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>978</v>
       </c>
@@ -12053,7 +12052,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>978</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>978</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>978</v>
       </c>
@@ -12113,7 +12112,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>978</v>
       </c>
@@ -12133,7 +12132,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>978</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>978</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>978</v>
       </c>
@@ -12193,7 +12192,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>978</v>
       </c>
@@ -12213,7 +12212,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>978</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>978</v>
       </c>
@@ -12253,7 +12252,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>978</v>
       </c>
@@ -12273,7 +12272,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>978</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>978</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>978</v>
       </c>
@@ -12333,7 +12332,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>978</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>978</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>978</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>978</v>
       </c>
@@ -12413,7 +12412,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>978</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>978</v>
       </c>
@@ -12453,7 +12452,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>978</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>978</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>978</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>978</v>
       </c>
@@ -12533,7 +12532,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>978</v>
       </c>
@@ -12553,7 +12552,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>978</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>978</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>978</v>
       </c>
@@ -12613,7 +12612,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>978</v>
       </c>
@@ -12633,7 +12632,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>978</v>
       </c>
@@ -12653,7 +12652,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>978</v>
       </c>
@@ -12673,7 +12672,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>978</v>
       </c>
@@ -12693,7 +12692,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>978</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>978</v>
       </c>
@@ -12733,7 +12732,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>978</v>
       </c>
@@ -12753,7 +12752,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>978</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>978</v>
       </c>
@@ -12793,7 +12792,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>978</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>978</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>978</v>
       </c>
@@ -12853,7 +12852,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>978</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>978</v>
       </c>
@@ -12893,7 +12892,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>978</v>
       </c>
@@ -12913,7 +12912,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>978</v>
       </c>
@@ -12933,7 +12932,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>978</v>
       </c>
@@ -12953,7 +12952,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>978</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>150</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>150</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>150</v>
       </c>
@@ -13033,7 +13032,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>150</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>150</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>150</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>150</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>150</v>
       </c>
@@ -13133,7 +13132,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>150</v>
       </c>
@@ -13153,7 +13152,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>150</v>
       </c>
@@ -13173,7 +13172,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>150</v>
       </c>
@@ -13193,7 +13192,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>150</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>150</v>
       </c>
@@ -13233,7 +13232,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>150</v>
       </c>
@@ -13253,7 +13252,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>150</v>
       </c>
@@ -13273,7 +13272,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>150</v>
       </c>
@@ -13293,7 +13292,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>150</v>
       </c>
@@ -13313,7 +13312,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>150</v>
       </c>
@@ -13333,7 +13332,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>150</v>
       </c>
@@ -13353,7 +13352,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>150</v>
       </c>
@@ -13373,7 +13372,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>150</v>
       </c>
@@ -13393,7 +13392,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>150</v>
       </c>
@@ -13413,7 +13412,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>150</v>
       </c>
@@ -13433,7 +13432,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>150</v>
       </c>
@@ -13453,7 +13452,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>150</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>150</v>
       </c>
@@ -13493,7 +13492,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>150</v>
       </c>
@@ -13513,7 +13512,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>150</v>
       </c>
@@ -13533,7 +13532,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>150</v>
       </c>
@@ -13553,7 +13552,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>150</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>150</v>
       </c>
@@ -13593,7 +13592,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>150</v>
       </c>
@@ -13613,7 +13612,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>150</v>
       </c>
@@ -13633,7 +13632,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>150</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>150</v>
       </c>
@@ -13673,7 +13672,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>150</v>
       </c>
@@ -13693,7 +13692,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>150</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>150</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>150</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>150</v>
       </c>
@@ -13773,7 +13772,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>150</v>
       </c>
@@ -13793,7 +13792,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>150</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>150</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>150</v>
       </c>
@@ -13853,7 +13852,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>150</v>
       </c>
@@ -13873,7 +13872,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>150</v>
       </c>
@@ -13893,7 +13892,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>150</v>
       </c>
@@ -13913,7 +13912,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>150</v>
       </c>
@@ -13933,7 +13932,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>150</v>
       </c>
@@ -13953,7 +13952,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>150</v>
       </c>
@@ -13973,7 +13972,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>150</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>150</v>
       </c>
@@ -14013,7 +14012,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>150</v>
       </c>
@@ -14033,7 +14032,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>150</v>
       </c>
@@ -14053,7 +14052,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>150</v>
       </c>
@@ -14073,7 +14072,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>150</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>150</v>
       </c>
@@ -14113,7 +14112,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>150</v>
       </c>
@@ -14133,7 +14132,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>150</v>
       </c>
@@ -14153,7 +14152,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>150</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>150</v>
       </c>
@@ -14193,7 +14192,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>150</v>
       </c>
@@ -14213,7 +14212,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>150</v>
       </c>
@@ -14233,7 +14232,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>150</v>
       </c>
@@ -14253,7 +14252,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>150</v>
       </c>
@@ -14273,7 +14272,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>150</v>
       </c>
@@ -14293,7 +14292,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>150</v>
       </c>
@@ -14313,7 +14312,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>150</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>150</v>
       </c>
@@ -14353,7 +14352,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>150</v>
       </c>
@@ -14373,7 +14372,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>150</v>
       </c>
@@ -14393,7 +14392,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>150</v>
       </c>
@@ -14413,7 +14412,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>150</v>
       </c>
@@ -14433,7 +14432,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>150</v>
       </c>
@@ -14453,7 +14452,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>150</v>
       </c>
@@ -14473,7 +14472,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>150</v>
       </c>
@@ -14493,7 +14492,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>150</v>
       </c>
@@ -14513,7 +14512,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>150</v>
       </c>
@@ -14533,7 +14532,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>150</v>
       </c>
@@ -14553,7 +14552,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>150</v>
       </c>
@@ -14573,7 +14572,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>150</v>
       </c>
@@ -14593,7 +14592,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>150</v>
       </c>
@@ -14613,7 +14612,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>150</v>
       </c>
@@ -14633,7 +14632,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>150</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>150</v>
       </c>
@@ -14673,7 +14672,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>150</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>150</v>
       </c>
@@ -14713,7 +14712,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>150</v>
       </c>
@@ -14733,7 +14732,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>150</v>
       </c>
@@ -14753,7 +14752,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>150</v>
       </c>
@@ -14773,7 +14772,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>150</v>
       </c>
@@ -14793,7 +14792,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>150</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
         <v>199</v>
       </c>
@@ -14830,7 +14829,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
         <v>552</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
         <v>199</v>
       </c>
@@ -14864,7 +14863,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
         <v>465</v>
       </c>
@@ -14881,7 +14880,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
         <v>32</v>
       </c>
@@ -14898,7 +14897,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
         <v>207</v>
       </c>
@@ -14915,7 +14914,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
         <v>222</v>
       </c>
@@ -14932,7 +14931,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
         <v>199</v>
       </c>
@@ -14949,7 +14948,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
         <v>37</v>
       </c>
@@ -14966,7 +14965,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
         <v>37</v>
       </c>
@@ -14983,7 +14982,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
         <v>481</v>
       </c>
@@ -15000,7 +14999,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
         <v>481</v>
       </c>
@@ -15017,7 +15016,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
         <v>199</v>
       </c>
@@ -15034,7 +15033,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
         <v>552</v>
       </c>
@@ -15051,7 +15050,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
         <v>552</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
         <v>465</v>
       </c>
@@ -15085,7 +15084,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
         <v>248</v>
       </c>
@@ -15102,7 +15101,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
         <v>502</v>
       </c>
@@ -15119,7 +15118,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
         <v>552</v>
       </c>
@@ -15136,7 +15135,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
         <v>37</v>
       </c>
@@ -15153,7 +15152,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
         <v>147</v>
       </c>
@@ -15179,7 +15178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -15188,17 +15187,17 @@
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" style="4"/>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="10"/>
-    <col min="5" max="5" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="10"/>
+    <col min="5" max="5" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -15212,7 +15211,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -15223,7 +15222,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -15234,7 +15233,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>192</v>
       </c>
@@ -15245,7 +15244,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -15256,7 +15255,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>875</v>
       </c>
@@ -15267,7 +15266,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>875</v>
       </c>
@@ -15278,7 +15277,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>864</v>
       </c>
@@ -15289,7 +15288,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>137</v>
       </c>
@@ -15300,7 +15299,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>137</v>
       </c>
@@ -15311,7 +15310,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>137</v>
       </c>
@@ -15322,7 +15321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>137</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>398</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>398</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>398</v>
       </c>
@@ -15366,7 +15365,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>144</v>
       </c>
@@ -15377,7 +15376,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>144</v>
       </c>
@@ -15388,7 +15387,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>144</v>
       </c>
@@ -15399,7 +15398,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>144</v>
       </c>
@@ -15410,7 +15409,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>144</v>
       </c>
@@ -15432,7 +15431,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>144</v>
       </c>
@@ -15443,7 +15442,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>144</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>144</v>
       </c>
@@ -15465,7 +15464,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>144</v>
       </c>
@@ -15476,7 +15475,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>144</v>
       </c>
@@ -15487,7 +15486,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>144</v>
       </c>
@@ -15498,7 +15497,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>144</v>
       </c>
@@ -15509,7 +15508,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>481</v>
       </c>
@@ -15520,7 +15519,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>967</v>
       </c>
@@ -15531,7 +15530,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>967</v>
       </c>
@@ -15542,7 +15541,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>887</v>
       </c>
@@ -15553,7 +15552,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>887</v>
       </c>
@@ -15564,7 +15563,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>116</v>
       </c>
@@ -15575,7 +15574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>116</v>
       </c>
@@ -15586,7 +15585,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>116</v>
       </c>
@@ -15597,7 +15596,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>116</v>
       </c>
@@ -15608,7 +15607,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>137</v>
       </c>
@@ -15619,7 +15618,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>481</v>
       </c>
@@ -15631,7 +15630,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
+  <sortState ref="A2:G39">
     <sortCondition ref="D2:D39"/>
     <sortCondition ref="A2:A39"/>
     <sortCondition ref="B2:B39"/>
@@ -15641,7 +15640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15650,17 +15649,17 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" style="4"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="10"/>
-    <col min="5" max="5" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="10"/>
+    <col min="5" max="5" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -15674,7 +15673,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>814</v>
       </c>
@@ -15685,7 +15684,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>814</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>814</v>
       </c>
@@ -15707,7 +15706,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>814</v>
       </c>
@@ -15718,7 +15717,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>814</v>
       </c>
@@ -15729,7 +15728,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>814</v>
       </c>
@@ -15740,7 +15739,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>175</v>
       </c>
@@ -15751,7 +15750,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>283</v>
       </c>
@@ -15762,7 +15761,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>283</v>
       </c>
@@ -15773,7 +15772,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>283</v>
       </c>
@@ -15784,7 +15783,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>283</v>
       </c>
@@ -15795,7 +15794,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -15806,7 +15805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -15817,7 +15816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -15828,7 +15827,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -15839,7 +15838,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -15850,7 +15849,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -15861,7 +15860,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
@@ -15872,7 +15871,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -15883,7 +15882,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>192</v>
       </c>
@@ -15894,7 +15893,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>248</v>
       </c>
@@ -15905,7 +15904,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>100</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>100</v>
       </c>
@@ -15927,7 +15926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>100</v>
       </c>
@@ -15938,7 +15937,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>100</v>
       </c>
@@ -15949,7 +15948,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>100</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>100</v>
       </c>
@@ -15971,7 +15970,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>100</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -15993,7 +15992,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>100</v>
       </c>
@@ -16004,7 +16003,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>100</v>
       </c>
@@ -16015,7 +16014,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>100</v>
       </c>
@@ -16026,7 +16025,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
@@ -16037,7 +16036,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>100</v>
       </c>
@@ -16048,7 +16047,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>100</v>
       </c>
@@ -16059,7 +16058,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
@@ -16070,7 +16069,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>100</v>
       </c>
@@ -16081,7 +16080,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>526</v>
       </c>
@@ -16092,7 +16091,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>526</v>
       </c>
@@ -16103,7 +16102,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>526</v>
       </c>
@@ -16114,7 +16113,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>526</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>526</v>
       </c>
@@ -16136,7 +16135,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>526</v>
       </c>
@@ -16147,7 +16146,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>147</v>
       </c>
@@ -16159,7 +16158,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G45">
+  <sortState ref="A2:G45">
     <sortCondition ref="D2:D45"/>
     <sortCondition ref="A2:A45"/>
     <sortCondition ref="B2:B45"/>
@@ -16169,7 +16168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16178,17 +16177,17 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="10"/>
-    <col min="5" max="5" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="10"/>
+    <col min="5" max="5" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -16202,7 +16201,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>207</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>298</v>
       </c>
@@ -16224,7 +16223,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>298</v>
       </c>
@@ -16235,7 +16234,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>243</v>
       </c>
@@ -16246,7 +16245,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>243</v>
       </c>
@@ -16257,7 +16256,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>243</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>243</v>
       </c>
@@ -16279,7 +16278,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>243</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>243</v>
       </c>
@@ -16301,7 +16300,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>243</v>
       </c>
@@ -16312,7 +16311,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>243</v>
       </c>
@@ -16323,7 +16322,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>243</v>
       </c>
@@ -16334,7 +16333,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>243</v>
       </c>
@@ -16345,7 +16344,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>243</v>
       </c>
@@ -16356,7 +16355,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>192</v>
       </c>
@@ -16367,7 +16366,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>192</v>
       </c>
@@ -16378,7 +16377,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>192</v>
       </c>
@@ -16389,7 +16388,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>192</v>
       </c>
@@ -16400,7 +16399,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>192</v>
       </c>
@@ -16411,7 +16410,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>192</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>192</v>
       </c>
@@ -16433,7 +16432,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>192</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>192</v>
       </c>
@@ -16455,7 +16454,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>192</v>
       </c>
@@ -16466,7 +16465,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>192</v>
       </c>
@@ -16477,7 +16476,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>192</v>
       </c>
@@ -16488,7 +16487,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>192</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>192</v>
       </c>
@@ -16510,7 +16509,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>192</v>
       </c>
@@ -16521,7 +16520,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>192</v>
       </c>
@@ -16532,7 +16531,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>192</v>
       </c>
@@ -16543,7 +16542,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>192</v>
       </c>
@@ -16554,7 +16553,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>192</v>
       </c>
@@ -16565,7 +16564,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>192</v>
       </c>
@@ -16576,7 +16575,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>192</v>
       </c>
@@ -16587,7 +16586,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>192</v>
       </c>
@@ -16598,7 +16597,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>192</v>
       </c>
@@ -16609,7 +16608,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>192</v>
       </c>
@@ -16620,7 +16619,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>192</v>
       </c>
@@ -16631,7 +16630,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>192</v>
       </c>
@@ -16642,7 +16641,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>192</v>
       </c>
@@ -16653,7 +16652,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>192</v>
       </c>
@@ -16664,7 +16663,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>192</v>
       </c>
@@ -16675,7 +16674,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>192</v>
       </c>
@@ -16686,7 +16685,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>192</v>
       </c>
@@ -16697,7 +16696,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>192</v>
       </c>
@@ -16708,7 +16707,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>192</v>
       </c>
@@ -16719,7 +16718,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>192</v>
       </c>
@@ -16730,7 +16729,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>192</v>
       </c>
@@ -16741,7 +16740,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>192</v>
       </c>
@@ -16752,7 +16751,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>192</v>
       </c>
@@ -16763,7 +16762,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>192</v>
       </c>
@@ -16774,7 +16773,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>192</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>192</v>
       </c>
@@ -16796,7 +16795,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>37</v>
       </c>
@@ -16807,7 +16806,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>243</v>
       </c>
@@ -16818,7 +16817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>192</v>
       </c>
@@ -16829,7 +16828,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>192</v>
       </c>
@@ -16840,7 +16839,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>192</v>
       </c>
@@ -16851,7 +16850,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>192</v>
       </c>
@@ -16863,7 +16862,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
+  <sortState ref="A2:G61">
     <sortCondition ref="D2:D61"/>
     <sortCondition ref="A2:A61"/>
     <sortCondition ref="B2:B61"/>
@@ -16873,7 +16872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16882,17 +16881,17 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" style="4"/>
-    <col min="3" max="3" width="71.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="10"/>
-    <col min="5" max="5" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="71.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="10"/>
+    <col min="5" max="5" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -16906,7 +16905,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -16917,7 +16916,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>175</v>
       </c>
@@ -16928,7 +16927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>175</v>
       </c>
@@ -16939,7 +16938,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>949</v>
       </c>
@@ -16950,7 +16949,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>949</v>
       </c>
@@ -16961,7 +16960,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>949</v>
       </c>
@@ -16972,7 +16971,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>949</v>
       </c>
@@ -16983,7 +16982,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>192</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>924</v>
       </c>
@@ -17005,7 +17004,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>924</v>
       </c>
@@ -17016,7 +17015,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -17027,7 +17026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -17038,7 +17037,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -17049,7 +17048,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -17060,7 +17059,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
@@ -17071,7 +17070,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -17082,7 +17081,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -17093,7 +17092,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -17104,7 +17103,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
@@ -17115,7 +17114,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -17126,7 +17125,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
@@ -17137,7 +17136,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
@@ -17148,7 +17147,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -17159,7 +17158,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -17170,7 +17169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -17181,7 +17180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
@@ -17192,7 +17191,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
@@ -17214,7 +17213,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
@@ -17225,7 +17224,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
@@ -17236,7 +17235,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -17247,7 +17246,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -17258,7 +17257,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
@@ -17269,7 +17268,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>204</v>
       </c>
@@ -17280,7 +17279,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>204</v>
       </c>
@@ -17291,7 +17290,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>147</v>
       </c>
@@ -17302,7 +17301,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>147</v>
       </c>
@@ -17313,7 +17312,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>147</v>
       </c>
@@ -17324,7 +17323,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>147</v>
       </c>
@@ -17335,7 +17334,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>147</v>
       </c>
@@ -17346,7 +17345,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>147</v>
       </c>
@@ -17357,7 +17356,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>147</v>
       </c>
@@ -17368,7 +17367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>147</v>
       </c>
@@ -17379,7 +17378,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>147</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>158</v>
       </c>
@@ -17401,7 +17400,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>158</v>
       </c>
@@ -17412,7 +17411,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>158</v>
       </c>
@@ -17423,7 +17422,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>158</v>
       </c>
@@ -17434,7 +17433,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>158</v>
       </c>
@@ -17445,7 +17444,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>158</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>158</v>
       </c>
@@ -17467,7 +17466,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>158</v>
       </c>
@@ -17478,7 +17477,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>158</v>
       </c>
@@ -17489,7 +17488,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>158</v>
       </c>
@@ -17500,7 +17499,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>158</v>
       </c>
@@ -17511,7 +17510,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>158</v>
       </c>
@@ -17522,7 +17521,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>158</v>
       </c>
@@ -17533,7 +17532,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>158</v>
       </c>
@@ -17544,7 +17543,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>215</v>
       </c>
@@ -17555,7 +17554,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>215</v>
       </c>
@@ -17566,7 +17565,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>215</v>
       </c>
@@ -17577,7 +17576,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>215</v>
       </c>
@@ -17588,7 +17587,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>215</v>
       </c>
@@ -17599,7 +17598,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>215</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>215</v>
       </c>
@@ -17621,7 +17620,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>215</v>
       </c>
@@ -17632,7 +17631,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>215</v>
       </c>
@@ -17643,7 +17642,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>215</v>
       </c>
@@ -17654,7 +17653,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>215</v>
       </c>
@@ -17665,7 +17664,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>215</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>215</v>
       </c>
@@ -17687,7 +17686,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>215</v>
       </c>
@@ -17698,7 +17697,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>215</v>
       </c>
@@ -17709,7 +17708,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>215</v>
       </c>
@@ -17720,7 +17719,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>215</v>
       </c>
@@ -17731,7 +17730,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>215</v>
       </c>
@@ -17742,7 +17741,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>215</v>
       </c>
@@ -17753,7 +17752,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>215</v>
       </c>
@@ -17764,7 +17763,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>899</v>
       </c>
@@ -17775,7 +17774,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>248</v>
       </c>
@@ -17786,7 +17785,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>37</v>
       </c>
@@ -17797,7 +17796,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>37</v>
       </c>
@@ -17808,7 +17807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>147</v>
       </c>
@@ -17819,7 +17818,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>147</v>
       </c>
@@ -17830,7 +17829,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>147</v>
       </c>
@@ -17841,7 +17840,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>147</v>
       </c>
@@ -17852,7 +17851,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>147</v>
       </c>
@@ -17863,7 +17862,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>147</v>
       </c>
@@ -17874,7 +17873,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>147</v>
       </c>
@@ -17885,7 +17884,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>158</v>
       </c>
@@ -17896,7 +17895,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>158</v>
       </c>
@@ -17907,7 +17906,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>215</v>
       </c>
@@ -17919,7 +17918,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G93">
+  <sortState ref="A2:G93">
     <sortCondition ref="D2:D93"/>
     <sortCondition ref="A2:A93"/>
     <sortCondition ref="B2:B93"/>
@@ -17938,12 +17937,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007F362E85C9F1C47AAC44F8082119467" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48cc9b3418bc48c85f4a3bec4499b323">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8" xmlns:ns4="af9604b6-2305-48f1-a0dd-079d18b39ece" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfa8b6998f849e67f26632766b504fa" ns3:_="" ns4:_="">
     <xsd:import namespace="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8"/>
@@ -18166,6 +18159,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3485A0E8-9D47-4B64-AFAD-D2E13781F16F}">
   <ds:schemaRefs>
@@ -18175,23 +18174,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEAEB94-CDC6-4915-B936-3BB8420F4EBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="af9604b6-2305-48f1-a0dd-079d18b39ece"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB0E1E8-CB06-4516-B753-CC4BABAA1CCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18208,4 +18190,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEAEB94-CDC6-4915-B936-3BB8420F4EBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="af9604b6-2305-48f1-a0dd-079d18b39ece"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a2ecd49f-0532-44cc-83dd-ac6f9de3fdf8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>